--- a/groups/23-24-Univers/codeforces_results.xlsx
+++ b/groups/23-24-Univers/codeforces_results.xlsx
@@ -22,6 +22,9 @@
     <t>№</t>
   </si>
   <si>
+    <t>Ченченко Даниил</t>
+  </si>
+  <si>
     <t>Поддубецкий Антон</t>
   </si>
   <si>
@@ -31,10 +34,10 @@
     <t>Леонтьев Дмитрий</t>
   </si>
   <si>
-    <t>Ченченко Даниил</t>
-  </si>
-  <si>
-    <t>ID</t>
+    <t>Хендл</t>
+  </si>
+  <si>
+    <t>pchelka12</t>
   </si>
   <si>
     <t>a_ntony</t>
@@ -46,9 +49,6 @@
     <t>sen1van</t>
   </si>
   <si>
-    <t>pchelka12</t>
-  </si>
-  <si>
     <t>Рейтинг</t>
   </si>
   <si>
@@ -91,24 +91,24 @@
     <t>993A</t>
   </si>
   <si>
+    <t>3-</t>
+  </si>
+  <si>
     <t>1+, 2-</t>
   </si>
   <si>
-    <t>3-</t>
-  </si>
-  <si>
     <t>1620A</t>
   </si>
   <si>
     <t>1813A</t>
   </si>
   <si>
+    <t>2-</t>
+  </si>
+  <si>
     <t>4-</t>
   </si>
   <si>
-    <t>2-</t>
-  </si>
-  <si>
     <t>1866A</t>
   </si>
   <si>
@@ -118,13 +118,13 @@
     <t>100168A</t>
   </si>
   <si>
+    <t>1+, 6-</t>
+  </si>
+  <si>
     <t>1+, 8-</t>
   </si>
   <si>
     <t>1+, 13-</t>
-  </si>
-  <si>
-    <t>1+, 6-</t>
   </si>
   <si>
     <t>100168B</t>
@@ -574,7 +574,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -591,16 +591,16 @@
         <v>11</v>
       </c>
       <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
         <v>45</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>16</v>
-      </c>
-      <c r="E4">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -608,16 +608,16 @@
         <v>12</v>
       </c>
       <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -625,7 +625,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -634,14 +634,14 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -649,7 +649,7 @@
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -657,7 +657,7 @@
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -665,7 +665,7 @@
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -673,7 +673,7 @@
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -681,7 +681,7 @@
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -689,10 +689,10 @@
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -700,7 +700,7 @@
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -708,10 +708,10 @@
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -719,7 +719,7 @@
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -727,8 +727,8 @@
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>29</v>
+      <c r="B17" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -738,7 +738,7 @@
       <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -749,21 +749,21 @@
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -771,7 +771,7 @@
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -779,7 +779,7 @@
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -787,7 +787,7 @@
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -795,7 +795,7 @@
       <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -803,7 +803,7 @@
       <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -811,7 +811,7 @@
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>15</v>
       </c>
     </row>

--- a/groups/23-24-Univers/codeforces_results.xlsx
+++ b/groups/23-24-Univers/codeforces_results.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$E$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$E$31</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>№</t>
   </si>
@@ -67,12 +67,15 @@
     <t>1+, 1-</t>
   </si>
   <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>1+</t>
+  </si>
+  <si>
     <t>25A</t>
   </si>
   <si>
-    <t>1+</t>
-  </si>
-  <si>
     <t>32B</t>
   </si>
   <si>
@@ -85,6 +88,12 @@
     <t>231A</t>
   </si>
   <si>
+    <t>342A</t>
+  </si>
+  <si>
+    <t>600B</t>
+  </si>
+  <si>
     <t>688B</t>
   </si>
   <si>
@@ -97,7 +106,16 @@
     <t>1+, 2-</t>
   </si>
   <si>
+    <t>1185B</t>
+  </si>
+  <si>
+    <t>1-</t>
+  </si>
+  <si>
     <t>1620A</t>
+  </si>
+  <si>
+    <t>1669F</t>
   </si>
   <si>
     <t>1813A</t>
@@ -523,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -591,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>45</v>
@@ -608,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -625,7 +643,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -657,16 +675,16 @@
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -674,7 +692,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -682,126 +700,126 @@
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>17</v>
@@ -809,14 +827,54 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E26"/>
+  <autoFilter ref="A1:E31"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -842,6 +900,11 @@
     <hyperlink ref="A24" r:id="rId22"/>
     <hyperlink ref="A25" r:id="rId23"/>
     <hyperlink ref="A26" r:id="rId24"/>
+    <hyperlink ref="A27" r:id="rId25"/>
+    <hyperlink ref="A28" r:id="rId26"/>
+    <hyperlink ref="A29" r:id="rId27"/>
+    <hyperlink ref="A30" r:id="rId28"/>
+    <hyperlink ref="A31" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/23-24-Univers/codeforces_results.xlsx
+++ b/groups/23-24-Univers/codeforces_results.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$E$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$E$51</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
   <si>
     <t>№</t>
   </si>
@@ -85,18 +85,48 @@
     <t>71A</t>
   </si>
   <si>
+    <t>182B</t>
+  </si>
+  <si>
+    <t>196A</t>
+  </si>
+  <si>
+    <t>1-</t>
+  </si>
+  <si>
     <t>231A</t>
   </si>
   <si>
+    <t>285B</t>
+  </si>
+  <si>
     <t>342A</t>
   </si>
   <si>
+    <t>519B</t>
+  </si>
+  <si>
     <t>600B</t>
   </si>
   <si>
     <t>688B</t>
   </si>
   <si>
+    <t>761B</t>
+  </si>
+  <si>
+    <t>2-</t>
+  </si>
+  <si>
+    <t>779B</t>
+  </si>
+  <si>
+    <t>924A</t>
+  </si>
+  <si>
+    <t>967B</t>
+  </si>
+  <si>
     <t>993A</t>
   </si>
   <si>
@@ -106,10 +136,13 @@
     <t>1+, 2-</t>
   </si>
   <si>
+    <t>1043B</t>
+  </si>
+  <si>
     <t>1185B</t>
   </si>
   <si>
-    <t>1-</t>
+    <t>1482A</t>
   </si>
   <si>
     <t>1620A</t>
@@ -118,12 +151,12 @@
     <t>1669F</t>
   </si>
   <si>
+    <t>1738B</t>
+  </si>
+  <si>
     <t>1813A</t>
   </si>
   <si>
-    <t>2-</t>
-  </si>
-  <si>
     <t>4-</t>
   </si>
   <si>
@@ -131,6 +164,33 @@
   </si>
   <si>
     <t>1867A</t>
+  </si>
+  <si>
+    <t>1948A</t>
+  </si>
+  <si>
+    <t>1948B</t>
+  </si>
+  <si>
+    <t>1968A</t>
+  </si>
+  <si>
+    <t>1968B</t>
+  </si>
+  <si>
+    <t>1968C</t>
+  </si>
+  <si>
+    <t>1968D</t>
+  </si>
+  <si>
+    <t>1982A</t>
+  </si>
+  <si>
+    <t>1982B</t>
+  </si>
+  <si>
+    <t>1982C</t>
   </si>
   <si>
     <t>100168A</t>
@@ -541,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -609,7 +669,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>45</v>
@@ -626,7 +686,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -643,7 +703,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -707,13 +767,13 @@
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>17</v>
@@ -721,160 +781,320 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
+      <c r="B23" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="3" t="s">
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="B25" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="B26" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
+      <c r="B27" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="C28" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="E44" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="3" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E31"/>
+  <autoFilter ref="A1:E51"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -905,6 +1125,26 @@
     <hyperlink ref="A29" r:id="rId27"/>
     <hyperlink ref="A30" r:id="rId28"/>
     <hyperlink ref="A31" r:id="rId29"/>
+    <hyperlink ref="A32" r:id="rId30"/>
+    <hyperlink ref="A33" r:id="rId31"/>
+    <hyperlink ref="A34" r:id="rId32"/>
+    <hyperlink ref="A35" r:id="rId33"/>
+    <hyperlink ref="A36" r:id="rId34"/>
+    <hyperlink ref="A37" r:id="rId35"/>
+    <hyperlink ref="A38" r:id="rId36"/>
+    <hyperlink ref="A39" r:id="rId37"/>
+    <hyperlink ref="A40" r:id="rId38"/>
+    <hyperlink ref="A41" r:id="rId39"/>
+    <hyperlink ref="A42" r:id="rId40"/>
+    <hyperlink ref="A43" r:id="rId41"/>
+    <hyperlink ref="A44" r:id="rId42"/>
+    <hyperlink ref="A45" r:id="rId43"/>
+    <hyperlink ref="A46" r:id="rId44"/>
+    <hyperlink ref="A47" r:id="rId45"/>
+    <hyperlink ref="A48" r:id="rId46"/>
+    <hyperlink ref="A49" r:id="rId47"/>
+    <hyperlink ref="A50" r:id="rId48"/>
+    <hyperlink ref="A51" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/23-24-Univers/codeforces_results.xlsx
+++ b/groups/23-24-Univers/codeforces_results.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$E$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$E$113</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="139">
   <si>
     <t>№</t>
   </si>
@@ -106,6 +106,12 @@
     <t>519B</t>
   </si>
   <si>
+    <t>529C</t>
+  </si>
+  <si>
+    <t>3-</t>
+  </si>
+  <si>
     <t>600B</t>
   </si>
   <si>
@@ -130,9 +136,6 @@
     <t>993A</t>
   </si>
   <si>
-    <t>3-</t>
-  </si>
-  <si>
     <t>1+, 2-</t>
   </si>
   <si>
@@ -193,12 +196,192 @@
     <t>1982C</t>
   </si>
   <si>
+    <t>2005A</t>
+  </si>
+  <si>
+    <t>2008A</t>
+  </si>
+  <si>
+    <t>2+, 1-</t>
+  </si>
+  <si>
+    <t>2008B</t>
+  </si>
+  <si>
+    <t>2008C</t>
+  </si>
+  <si>
+    <t>2009A</t>
+  </si>
+  <si>
+    <t>2009B</t>
+  </si>
+  <si>
+    <t>2009C</t>
+  </si>
+  <si>
+    <t>2009D</t>
+  </si>
+  <si>
+    <t>6-</t>
+  </si>
+  <si>
+    <t>2028A</t>
+  </si>
+  <si>
+    <t>2028B</t>
+  </si>
+  <si>
+    <t>2034A</t>
+  </si>
+  <si>
+    <t>2034B</t>
+  </si>
+  <si>
+    <t>2034C</t>
+  </si>
+  <si>
+    <t>2034D</t>
+  </si>
+  <si>
+    <t>2037A</t>
+  </si>
+  <si>
+    <t>2037B</t>
+  </si>
+  <si>
+    <t>2037C</t>
+  </si>
+  <si>
+    <t>2039A</t>
+  </si>
+  <si>
+    <t>2039B</t>
+  </si>
+  <si>
+    <t>5-</t>
+  </si>
+  <si>
+    <t>2039C1</t>
+  </si>
+  <si>
+    <t>2040A</t>
+  </si>
+  <si>
+    <t>2040B</t>
+  </si>
+  <si>
+    <t>2040C</t>
+  </si>
+  <si>
+    <t>2042A</t>
+  </si>
+  <si>
+    <t>2042B</t>
+  </si>
+  <si>
+    <t>2043A</t>
+  </si>
+  <si>
+    <t>1+, 6-</t>
+  </si>
+  <si>
+    <t>2043B</t>
+  </si>
+  <si>
+    <t>1+, 4-</t>
+  </si>
+  <si>
+    <t>2043C</t>
+  </si>
+  <si>
+    <t>2044A</t>
+  </si>
+  <si>
+    <t>2044B</t>
+  </si>
+  <si>
+    <t>2044C</t>
+  </si>
+  <si>
+    <t>2046B</t>
+  </si>
+  <si>
+    <t>2047A</t>
+  </si>
+  <si>
+    <t>2047B</t>
+  </si>
+  <si>
+    <t>2047C</t>
+  </si>
+  <si>
+    <t>2047D</t>
+  </si>
+  <si>
+    <t>8-</t>
+  </si>
+  <si>
+    <t>2048A</t>
+  </si>
+  <si>
+    <t>2048B</t>
+  </si>
+  <si>
+    <t>2048C</t>
+  </si>
+  <si>
+    <t>2050A</t>
+  </si>
+  <si>
+    <t>2050B</t>
+  </si>
+  <si>
+    <t>2050C</t>
+  </si>
+  <si>
+    <t>2050D</t>
+  </si>
+  <si>
+    <t>2050E</t>
+  </si>
+  <si>
+    <t>2+</t>
+  </si>
+  <si>
+    <t>2050F</t>
+  </si>
+  <si>
+    <t>2051A</t>
+  </si>
+  <si>
+    <t>2051B</t>
+  </si>
+  <si>
+    <t>2051C</t>
+  </si>
+  <si>
+    <t>2051D</t>
+  </si>
+  <si>
+    <t>2051E</t>
+  </si>
+  <si>
+    <t>2057A</t>
+  </si>
+  <si>
+    <t>2057B</t>
+  </si>
+  <si>
+    <t>2057C</t>
+  </si>
+  <si>
+    <t>2057D</t>
+  </si>
+  <si>
     <t>100168A</t>
   </si>
   <si>
-    <t>1+, 6-</t>
-  </si>
-  <si>
     <t>1+, 8-</t>
   </si>
   <si>
@@ -214,9 +397,6 @@
     <t>100168K</t>
   </si>
   <si>
-    <t>1+, 4-</t>
-  </si>
-  <si>
     <t>100168L</t>
   </si>
   <si>
@@ -229,13 +409,31 @@
     <t>100168N</t>
   </si>
   <si>
-    <t>5-</t>
-  </si>
-  <si>
     <t>100168P</t>
   </si>
   <si>
     <t>100168S</t>
+  </si>
+  <si>
+    <t>101962C</t>
+  </si>
+  <si>
+    <t>105536A</t>
+  </si>
+  <si>
+    <t>105536B</t>
+  </si>
+  <si>
+    <t>105536C</t>
+  </si>
+  <si>
+    <t>105618A</t>
+  </si>
+  <si>
+    <t>105618B</t>
+  </si>
+  <si>
+    <t>105618C</t>
   </si>
 </sst>
 </file>
@@ -601,7 +799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -652,10 +850,10 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>358</v>
+        <v>1229</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1186</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -669,10 +867,10 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -686,10 +884,10 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -703,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -807,37 +1005,37 @@
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>17</v>
+      <c r="C18" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="4" t="s">
         <v>32</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>17</v>
+      <c r="B21" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>17</v>
@@ -845,7 +1043,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>17</v>
@@ -853,44 +1051,44 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="B24" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>24</v>
+      <c r="B26" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>17</v>
+      <c r="B27" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -898,7 +1096,7 @@
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -907,61 +1105,61 @@
         <v>44</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>46</v>
+      <c r="B31" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="B33" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="B34" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="B35" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="B36" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
         <v>52</v>
       </c>
@@ -969,7 +1167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
         <v>53</v>
       </c>
@@ -977,7 +1175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
         <v>54</v>
       </c>
@@ -985,7 +1183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
         <v>55</v>
       </c>
@@ -993,7 +1191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
         <v>56</v>
       </c>
@@ -1001,100 +1199,641 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="B42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="B44" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2" t="s">
+      <c r="B46" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2" t="s">
+      <c r="B47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>68</v>
+      <c r="B48" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>17</v>
+        <v>66</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="B55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="C56" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E51"/>
+  <autoFilter ref="A1:E113"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -1145,6 +1884,68 @@
     <hyperlink ref="A49" r:id="rId47"/>
     <hyperlink ref="A50" r:id="rId48"/>
     <hyperlink ref="A51" r:id="rId49"/>
+    <hyperlink ref="A52" r:id="rId50"/>
+    <hyperlink ref="A53" r:id="rId51"/>
+    <hyperlink ref="A54" r:id="rId52"/>
+    <hyperlink ref="A55" r:id="rId53"/>
+    <hyperlink ref="A56" r:id="rId54"/>
+    <hyperlink ref="A57" r:id="rId55"/>
+    <hyperlink ref="A58" r:id="rId56"/>
+    <hyperlink ref="A59" r:id="rId57"/>
+    <hyperlink ref="A60" r:id="rId58"/>
+    <hyperlink ref="A61" r:id="rId59"/>
+    <hyperlink ref="A62" r:id="rId60"/>
+    <hyperlink ref="A63" r:id="rId61"/>
+    <hyperlink ref="A64" r:id="rId62"/>
+    <hyperlink ref="A65" r:id="rId63"/>
+    <hyperlink ref="A66" r:id="rId64"/>
+    <hyperlink ref="A67" r:id="rId65"/>
+    <hyperlink ref="A68" r:id="rId66"/>
+    <hyperlink ref="A69" r:id="rId67"/>
+    <hyperlink ref="A70" r:id="rId68"/>
+    <hyperlink ref="A71" r:id="rId69"/>
+    <hyperlink ref="A72" r:id="rId70"/>
+    <hyperlink ref="A73" r:id="rId71"/>
+    <hyperlink ref="A74" r:id="rId72"/>
+    <hyperlink ref="A75" r:id="rId73"/>
+    <hyperlink ref="A76" r:id="rId74"/>
+    <hyperlink ref="A77" r:id="rId75"/>
+    <hyperlink ref="A78" r:id="rId76"/>
+    <hyperlink ref="A79" r:id="rId77"/>
+    <hyperlink ref="A80" r:id="rId78"/>
+    <hyperlink ref="A81" r:id="rId79"/>
+    <hyperlink ref="A82" r:id="rId80"/>
+    <hyperlink ref="A83" r:id="rId81"/>
+    <hyperlink ref="A84" r:id="rId82"/>
+    <hyperlink ref="A85" r:id="rId83"/>
+    <hyperlink ref="A86" r:id="rId84"/>
+    <hyperlink ref="A87" r:id="rId85"/>
+    <hyperlink ref="A88" r:id="rId86"/>
+    <hyperlink ref="A89" r:id="rId87"/>
+    <hyperlink ref="A90" r:id="rId88"/>
+    <hyperlink ref="A91" r:id="rId89"/>
+    <hyperlink ref="A92" r:id="rId90"/>
+    <hyperlink ref="A93" r:id="rId91"/>
+    <hyperlink ref="A94" r:id="rId92"/>
+    <hyperlink ref="A95" r:id="rId93"/>
+    <hyperlink ref="A96" r:id="rId94"/>
+    <hyperlink ref="A97" r:id="rId95"/>
+    <hyperlink ref="A98" r:id="rId96"/>
+    <hyperlink ref="A99" r:id="rId97"/>
+    <hyperlink ref="A100" r:id="rId98"/>
+    <hyperlink ref="A101" r:id="rId99"/>
+    <hyperlink ref="A102" r:id="rId100"/>
+    <hyperlink ref="A103" r:id="rId101"/>
+    <hyperlink ref="A104" r:id="rId102"/>
+    <hyperlink ref="A105" r:id="rId103"/>
+    <hyperlink ref="A106" r:id="rId104"/>
+    <hyperlink ref="A107" r:id="rId105"/>
+    <hyperlink ref="A108" r:id="rId106"/>
+    <hyperlink ref="A109" r:id="rId107"/>
+    <hyperlink ref="A110" r:id="rId108"/>
+    <hyperlink ref="A111" r:id="rId109"/>
+    <hyperlink ref="A112" r:id="rId110"/>
+    <hyperlink ref="A113" r:id="rId111"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/23-24-Univers/codeforces_results.xlsx
+++ b/groups/23-24-Univers/codeforces_results.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$E$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$E$114</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="140">
   <si>
     <t>№</t>
   </si>
@@ -82,6 +82,12 @@
     <t>1+, 3-</t>
   </si>
   <si>
+    <t>52C</t>
+  </si>
+  <si>
+    <t>1+, 2-</t>
+  </si>
+  <si>
     <t>71A</t>
   </si>
   <si>
@@ -134,9 +140,6 @@
   </si>
   <si>
     <t>993A</t>
-  </si>
-  <si>
-    <t>1+, 2-</t>
   </si>
   <si>
     <t>1043B</t>
@@ -799,7 +802,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -867,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C4">
         <v>91</v>
@@ -884,7 +887,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5">
         <v>23</v>
@@ -950,36 +953,36 @@
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>17</v>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>17</v>
@@ -987,187 +990,187 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="C19" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B22" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="C30" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="B32" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="B34" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="B35" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="B36" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="B37" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>53</v>
       </c>
@@ -1175,7 +1178,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
         <v>54</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
         <v>55</v>
       </c>
@@ -1191,7 +1194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
         <v>56</v>
       </c>
@@ -1199,7 +1202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
         <v>57</v>
       </c>
@@ -1207,39 +1210,39 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="B43" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="B44" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>63</v>
       </c>
@@ -1247,7 +1250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
         <v>64</v>
       </c>
@@ -1268,42 +1271,39 @@
         <v>66</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>68</v>
+      <c r="B51" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>24</v>
+      <c r="C53" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>17</v>
+      <c r="C54" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1314,7 +1314,7 @@
         <v>17</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1322,29 +1322,32 @@
         <v>73</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>24</v>
+      <c r="B57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>17</v>
+      <c r="B58" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1352,7 +1355,7 @@
         <v>76</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1368,10 +1371,7 @@
         <v>78</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1379,21 +1379,21 @@
         <v>79</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1403,136 +1403,136 @@
       <c r="B64" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="C64" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="B66" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="B67" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B70" s="3" t="s">
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="B72" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="B75" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="B76" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="2" t="s">
+      <c r="B80" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1540,10 +1540,10 @@
         <v>102</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1554,7 +1554,7 @@
         <v>15</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1562,7 +1562,10 @@
         <v>104</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1578,7 +1581,7 @@
         <v>106</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1586,7 +1589,7 @@
         <v>107</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1594,15 +1597,15 @@
         <v>108</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1612,9 +1615,6 @@
       <c r="B89" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
@@ -1634,8 +1634,8 @@
       <c r="B91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>34</v>
+      <c r="C91" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1645,8 +1645,8 @@
       <c r="B92" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>90</v>
+      <c r="C92" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1657,23 +1657,26 @@
         <v>17</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="B94" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C94" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>24</v>
+      <c r="C95" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1681,7 +1684,7 @@
         <v>118</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -1689,43 +1692,43 @@
         <v>119</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>122</v>
+      <c r="C98" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="B100" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C100" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -1733,7 +1736,7 @@
         <v>125</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -1741,7 +1744,7 @@
         <v>126</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -1749,23 +1752,23 @@
         <v>127</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>17</v>
+      <c r="C105" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -1773,15 +1776,15 @@
         <v>131</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>17</v>
+      <c r="C107" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -1797,7 +1800,7 @@
         <v>134</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -1805,7 +1808,7 @@
         <v>135</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -1813,7 +1816,7 @@
         <v>136</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -1832,8 +1835,16 @@
         <v>17</v>
       </c>
     </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E113"/>
+  <autoFilter ref="A1:E114"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -1946,6 +1957,7 @@
     <hyperlink ref="A111" r:id="rId109"/>
     <hyperlink ref="A112" r:id="rId110"/>
     <hyperlink ref="A113" r:id="rId111"/>
+    <hyperlink ref="A114" r:id="rId112"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/23-24-Univers/codeforces_results.xlsx
+++ b/groups/23-24-Univers/codeforces_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="140">
   <si>
     <t>№</t>
   </si>
@@ -873,7 +873,7 @@
         <v>164</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -890,7 +890,7 @@
         <v>77</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -954,6 +954,9 @@
       </c>
       <c r="B11" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
